--- a/biology/Médecine/Anatomopathologie/Anatomopathologie.xlsx
+++ b/biology/Médecine/Anatomopathologie/Anatomopathologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'anatomopathologie, anatomo-pathologie ou anatomie pathologique[1], informellement abrégée en « anat-patho » ou « anapath » dans le jargon des professionnels de la santé, est une spécialité médicale humaine et vétérinaire. C'est la partie de la pathologie consacrée à l'étude morphologique des anomalies  macroscopiques et microscopiques des tissus biologiques et des cellules pathologiques prélevés sur un être vivant ou mort.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'anatomopathologie, anatomo-pathologie ou anatomie pathologique, informellement abrégée en « anat-patho » ou « anapath » dans le jargon des professionnels de la santé, est une spécialité médicale humaine et vétérinaire. C'est la partie de la pathologie consacrée à l'étude morphologique des anomalies  macroscopiques et microscopiques des tissus biologiques et des cellules pathologiques prélevés sur un être vivant ou mort.
 Le médecin ou le vétérinaire spécialisé en anatomopathologie est appelé anatomopathologiste, ou pathologiste.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le premier traité d'anatomopathologie publié est, en 1679, celui de Théophile Bonet, un médecin genevois, Sepulchretum: sive anatomia practica ex cadaveribus morbo denalis. L'anatomopathologie moderne commence au XVIIIe siècle avec l'Italien Giovanni Battista Morgagni. Au XIXe siècle, le médecin allemand Rudolf Virchow fera une contribution notable. En France, la première chaire universitaire indépendante de cette discipline est créée par Jean Lobstein en 1819, à la Faculté de Médecine de l'Université de Strasbourg.
 </t>
@@ -545,13 +559,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pathologie
-La pathologie est l'étude des maladies. Elle intègre l'anatomopathologie, l'épidémiologie, la pathogénie, la sémiologie, etc. Le mot « pathologie » n'est donc pas un synonyme de « maladie », et ne doit être utilisé qu'au singulier.
+          <t>Pathologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La pathologie est l'étude des maladies. Elle intègre l'anatomopathologie, l'épidémiologie, la pathogénie, la sémiologie, etc. Le mot « pathologie » n'est donc pas un synonyme de « maladie », et ne doit être utilisé qu'au singulier.
 Les anglo-saxons la divisent en deux grandes sections :
 l'anatomopathologie ;
-la biologie médicale.
-Anatomopathologie
-L'anatomopathologie étudie les lésions macroscopiques et microscopiques de tissus prélevés sur des êtres vivants malades ou décédés par biopsie, frottis ou biopsie extemporanée. Selon qu'elle s'intéresse à l'Homme ou à l'animal, on distingue l'anatomopathologie humaine et l'anatomopathologie vétérinaire.
+la biologie médicale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anatomopathologie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anatomopathologie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Définitions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Anatomopathologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'anatomopathologie étudie les lésions macroscopiques et microscopiques de tissus prélevés sur des êtres vivants malades ou décédés par biopsie, frottis ou biopsie extemporanée. Selon qu'elle s'intéresse à l'Homme ou à l'animal, on distingue l'anatomopathologie humaine et l'anatomopathologie vétérinaire.
 On considère :
 l'anatomopathologie générale, qui s'intéresse aux grands processus lésionnels concernant les éléments fondamentaux d'un organisme : l'inflammation, la cancérologie, les troubles vasculaires, les altérations cellulaires, la nécrose, la cicatrisation, etc. ;
 l'anatomopathologie spéciale, qui étudie la pathologie par appareils : cœur, poumon, foie, etc.
@@ -566,43 +619,150 @@
 Cette conservation permanente des informations recueillies, des lames et blocs de paraffine constitue l’une des missions importantes des laboratoires de pathologie.
 Ces laboratoires disposent souvent de centaines de milliers de tumeurs ainsi archivées permettant des analyses rétrospectives utiles pour une meilleure prise en charge des patients et indispensables pour faire progresser nos connaissances sur le cancer.
 Les laboratoires de pathologie des centres hospitalo-universitaires et des centres de lutte contre le cancer ont également mis en place des tumorothèques complétant les archives conventionnelles et permettant des analyses moléculaires plus élaborées.
-Lésion
-On définit par lésion toute modification non physiologique, macroscopique ou microscopique, d'une cellule, d'un tissu ou d'un organe, et survenant du vivant de l'animal. Cette dernière condition est importante car elle élimine les altérations post-mortem des tissus telles que l'autolyse, la putréfaction, le rigor mortis (rigidité cadavérique) ou le livor mortis (lividité cadavérique). Si le pathologiste ne doit pas les considérer comme de vraies lésions, il en tient cependant compte, notamment comme outils de datation de la mort, dans le cadre de la médecine légale par exemple.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anatomopathologie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anatomopathologie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Définitions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Lésion</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On définit par lésion toute modification non physiologique, macroscopique ou microscopique, d'une cellule, d'un tissu ou d'un organe, et survenant du vivant de l'animal. Cette dernière condition est importante car elle élimine les altérations post-mortem des tissus telles que l'autolyse, la putréfaction, le rigor mortis (rigidité cadavérique) ou le livor mortis (lividité cadavérique). Si le pathologiste ne doit pas les considérer comme de vraies lésions, il en tient cependant compte, notamment comme outils de datation de la mort, dans le cadre de la médecine légale par exemple.
 Afin de bien discerner lésions et non-lésions, l'anatomopathologie exige une bonne maîtrise des notions de base d'anatomie, d'histologie et de physiologie : il faut bien connaître le normal pour reconnaître l'anormal.
-Cytopathologie
-La cytopathologie est très souvent associée à l'anatomopathologie. Elle s'en distingue par le fait que les éléments étudiés ne le sont plus sous forme de tissus fixés et coupés, mais de prélèvements obtenus le plus souvent par ponction ou calque, et directement étalés sur une lame ce qui la rapproche de la biologie médicale. Les cellules sont alors entières mais l'architecture du tissu est perdue. S'agissant d'un étalement et non plus d'une coupe, la taille des cellules est y plus grande et permet de mieux apprécier la morphologie cellulaire (d'où le nom de cytologie) plutôt que les caractéristiques tissulaires (domaine de l'histologie). Parmi les prélèvements courants en cytopathologie, citons les ponctions lombaires (prélèvements de liquide céphalorachidien), les ponctions articulaires (prélèvements de liquide synovial), le frottis vaginal, les ponctions de masse, les ponctions de moelle osseuse hématopoïétique (myélogramme), les ponctions de nœuds lymphatiques (adénogramme), les lavages bronchoalvéolaires, l'urine, etc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anatomopathologie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anatomopathologie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Définitions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cytopathologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cytopathologie est très souvent associée à l'anatomopathologie. Elle s'en distingue par le fait que les éléments étudiés ne le sont plus sous forme de tissus fixés et coupés, mais de prélèvements obtenus le plus souvent par ponction ou calque, et directement étalés sur une lame ce qui la rapproche de la biologie médicale. Les cellules sont alors entières mais l'architecture du tissu est perdue. S'agissant d'un étalement et non plus d'une coupe, la taille des cellules est y plus grande et permet de mieux apprécier la morphologie cellulaire (d'où le nom de cytologie) plutôt que les caractéristiques tissulaires (domaine de l'histologie). Parmi les prélèvements courants en cytopathologie, citons les ponctions lombaires (prélèvements de liquide céphalorachidien), les ponctions articulaires (prélèvements de liquide synovial), le frottis vaginal, les ponctions de masse, les ponctions de moelle osseuse hématopoïétique (myélogramme), les ponctions de nœuds lymphatiques (adénogramme), les lavages bronchoalvéolaires, l'urine, etc.
 En définitive, cette discipline est une discipline mixte dépendant à la fois de la biologie médicale et de l'anatomopathologie.
-Pathologie clinique
-L'anatomopathologie ne concerne pas l'étude de la composition des liquides biologiques, qui est dévolue à la biologie médicale. L'hématologie, qui étudie les éléments figurés du sang, s'est détachée de l'anatomopathologie et constitue une spécialité à part entière. Biologie médicale et hématologie sont souvent regroupées sous le terme de pathologie clinique.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Anatomopathologie</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Anatomopathologie</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anatomopathologie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anatomopathologie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Définitions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Pathologie clinique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'anatomopathologie ne concerne pas l'étude de la composition des liquides biologiques, qui est dévolue à la biologie médicale. L'hématologie, qui étudie les éléments figurés du sang, s'est détachée de l'anatomopathologie et constitue une spécialité à part entière. Biologie médicale et hématologie sont souvent regroupées sous le terme de pathologie clinique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Anatomopathologie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anatomopathologie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Domaines d'investigation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Pathologie chirurgicale :
 Dermatopathologie (en)
@@ -612,98 +772,174 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Anatomopathologie</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Anatomopathologie</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Anatomopathologie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anatomopathologie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Classification des lésions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Une classification simple des lésions et maladies est fondée sur leur étiologie. Une première dichotomie s'effectue entre les lésions tumorales et les lésions non tumorales. Dans les lésions non tumorales, on considère les lésions d'origines inflammatoires, dégénératives, nutritionnelles, métaboliques, toxiques, infectieuses, physiques, chimiques, traumatiques, comportementales, génétiques, embryologiques, etc. Ces catégories sont loin d'être hermétiques car pour une même lésion, il peut exister de nombreuses interconnexions. Ainsi, certaines infections virales peuvent engendrer des tumeurs, et des lésions dégénératives suscitent souvent de fortes réactions inflammatoires.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Anatomopathologie</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Anatomopathologie</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Anatomopathologie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anatomopathologie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Outils de l'anatomopathologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Microscopes photoniques et électroniques, microtome, « tissus processor » (utilisé pour le traitement et la protection des tissus à analyser), ordinateur, tissus, organes, sécrétions, sang, sérum, etc.
-Examen macroscopique
-L'œil est le premier outil du pathologiste. En effet, l'anatomopathologie est avant tout une science de la description. Selon les cas, les autres sens peuvent également être sollicités. Par exemple, lors de l'examen d'une tumeur sur un cadavre, on s'attachera à décrire sa localisation, sa taille, sa couleur, sa forme, sa consistance, sa délimitation, ses rapports aux autres organes, son aspect à la coupe, etc. À cette étape, de nombreuses informations peuvent orienter le diagnostic. Lors de l'examen macroscopique, le pathologiste peut avoir recours à une balance afin d'apprécier d'éventuelles variations de poids des organes.
-Examen microscopique
-L'analyse microscopique est généralement l'activité principale du pathologiste. Il a pour cela recours aux outils de la microscopie, principalement optique ou photonique, mais également électronique. L'immunofluorescence, l'immunohistochimie et l'hybridation in situ sont également utilisées afin d'approfondir le diagnostic.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Anatomopathologie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anatomopathologie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Outils de l'anatomopathologie</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Examen macroscopique</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'œil est le premier outil du pathologiste. En effet, l'anatomopathologie est avant tout une science de la description. Selon les cas, les autres sens peuvent également être sollicités. Par exemple, lors de l'examen d'une tumeur sur un cadavre, on s'attachera à décrire sa localisation, sa taille, sa couleur, sa forme, sa consistance, sa délimitation, ses rapports aux autres organes, son aspect à la coupe, etc. À cette étape, de nombreuses informations peuvent orienter le diagnostic. Lors de l'examen macroscopique, le pathologiste peut avoir recours à une balance afin d'apprécier d'éventuelles variations de poids des organes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Anatomopathologie</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anatomopathologie</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Outils de l'anatomopathologie</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Examen microscopique</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'analyse microscopique est généralement l'activité principale du pathologiste. Il a pour cela recours aux outils de la microscopie, principalement optique ou photonique, mais également électronique. L'immunofluorescence, l'immunohistochimie et l'hybridation in situ sont également utilisées afin d'approfondir le diagnostic.
 Cette étape permet d'affirmer le caractère tumoral ou non d'une lésion et le cas échéant d'aboutir à la dénomination de la tumeur, basée sur le type cellulaire d'origine. L'examen microscopique permet également d'apprécier les lésions de type inflammatoire et éventuellement d'identifier un agent causal (virus, bactéries, protozoaires, mycètes, parasites, etc.)
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Anatomopathologie</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Anatomopathologie</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Anatomopathologie</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anatomopathologie</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Applications de l'anatomopathologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>L'anatomopathologie s'occupe :
 du diagnostic de certaines maladies qui réclament une certitude anatomopathologique : par exemple les cancers, où seul le spécialiste pourra affirmer qu'une lésion qu'on lui a soumise comprend des cellules cancéreuses. Le pathologiste identifie par ailleurs le type de tumeur et peut le cas échéant fournir un pronostic sur la gravité de la lésion ;
